--- a/nmadb/479757.xlsx
+++ b/nmadb/479757.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\DA_Particia\Verification_1st_NMA_n=54\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
@@ -16,95 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SMS</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>SMS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Extracted study level data b/c arm data only provided median and no measure of variation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>SMS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Need Ln of HR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>SMS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Need to calculate SE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,8 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,19 +180,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -410,24 +311,24 @@
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -481,24 +382,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -589,7 +490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,7 +524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -808,7 +707,7 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
@@ -824,7 +723,7 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -862,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>2002</v>
       </c>
@@ -897,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2005</v>
       </c>
@@ -931,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>2013</v>
       </c>
@@ -965,7 +864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>2009</v>
       </c>
@@ -999,7 +898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -1032,7 +931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
@@ -1065,7 +964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>2010</v>
       </c>
@@ -1098,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>2006</v>
       </c>
@@ -1133,7 +1032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="3">
         <v>2007</v>
       </c>
@@ -1166,7 +1065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>2011</v>
       </c>
@@ -1192,7 +1091,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>2005</v>
       </c>
@@ -1218,7 +1117,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
@@ -1244,7 +1143,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
@@ -1270,7 +1169,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>2012</v>
       </c>
@@ -1296,7 +1195,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="3">
         <v>2013</v>
       </c>
@@ -1324,7 +1223,7 @@
       </c>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="3">
         <v>2007</v>
       </c>
@@ -1350,7 +1249,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="3" customFormat="1">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1361,7 +1260,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -1372,7 +1271,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
@@ -1383,7 +1282,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -1394,7 +1293,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -1405,7 +1304,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="33" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" s="3" customFormat="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -1416,7 +1315,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="35" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" s="6" customFormat="1">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -1427,7 +1326,7 @@
       <c r="I35" s="15"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="42" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" s="3" customFormat="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -1438,58 +1337,57 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4">
       <c r="D70" s="16"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4">
       <c r="D71" s="16"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4">
       <c r="D72" s="16"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4">
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4">
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4">
       <c r="D75" s="16"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="16"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="16"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="16"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4">
       <c r="D80" s="16"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4">
       <c r="D81" s="16"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4">
       <c r="D82" s="16"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4">
       <c r="D83" s="16"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4">
       <c r="D84" s="16"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4">
       <c r="D85" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1499,12 +1397,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1516,12 +1414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/nmadb/479757.xlsx
+++ b/nmadb/479757.xlsx
@@ -11,8 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Treatments</t>
   </si>
@@ -30,9 +29,6 @@
     <t>Study id</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -52,9 +48,6 @@
   </si>
   <si>
     <t>study name</t>
-  </si>
-  <si>
-    <t>HR</t>
   </si>
   <si>
     <r>
@@ -149,6 +142,15 @@
   </si>
   <si>
     <t xml:space="preserve">GE </t>
+  </si>
+  <si>
+    <t>effect=HR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -704,7 +706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -725,40 +727,40 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -766,7 +768,7 @@
         <v>2002</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -786,6 +788,10 @@
       <c r="I2" s="12">
         <v>1.03</v>
       </c>
+      <c r="J2" s="12">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>9.8917117867555193E-2</v>
+      </c>
       <c r="N2" s="17" t="s">
         <v>0</v>
       </c>
@@ -793,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -801,7 +807,7 @@
         <v>2005</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11">
         <v>2</v>
@@ -820,6 +826,10 @@
       </c>
       <c r="I3" s="12">
         <v>1.24</v>
+      </c>
+      <c r="J3" s="12">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>9.6314035818409E-2</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="20"/>
@@ -827,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -835,7 +845,7 @@
         <v>2013</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <v>3</v>
@@ -854,6 +864,10 @@
       </c>
       <c r="I4" s="12">
         <v>0.84</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J17" si="0">(I4-H4)/(1.96^2)</f>
+        <v>5.7267805081216157E-2</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="20"/>
@@ -861,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -869,7 +883,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
         <v>4</v>
@@ -888,6 +902,10 @@
       </c>
       <c r="I5" s="12">
         <v>1.02</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>7.8092461474385685E-2</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="20"/>
@@ -895,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -903,7 +921,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11">
         <v>5</v>
@@ -922,13 +940,17 @@
       </c>
       <c r="I6" s="12">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1067263640149938</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="21">
         <v>5</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -936,7 +958,7 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
@@ -955,13 +977,17 @@
       </c>
       <c r="I7" s="12">
         <v>1.34</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21865889212827994</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="21">
         <v>6</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -969,7 +995,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11">
         <v>7</v>
@@ -988,13 +1014,17 @@
       </c>
       <c r="I8" s="12">
         <v>1.35</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11974177426072473</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="21">
         <v>7</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1002,7 +1032,7 @@
         <v>2006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="11">
         <v>8</v>
@@ -1021,6 +1051,10 @@
       </c>
       <c r="I9" s="12">
         <v>1.08</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1275510204081633</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1029,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
@@ -1037,7 +1071,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11">
         <v>9</v>
@@ -1056,13 +1090,17 @@
       </c>
       <c r="I10" s="12">
         <v>0.97</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>7.2886297376093312E-2</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="25">
         <v>9</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1070,7 +1108,7 @@
         <v>2011</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -1089,6 +1127,10 @@
       </c>
       <c r="I11" s="12">
         <v>0.72</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>7.0283215326947104E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1096,7 +1138,7 @@
         <v>2005</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11">
         <v>11</v>
@@ -1115,6 +1157,10 @@
       </c>
       <c r="I12" s="12">
         <v>1.07</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413997</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1122,7 +1168,7 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11">
         <v>12</v>
@@ -1141,6 +1187,13 @@
       </c>
       <c r="I13" s="12">
         <v>1.02</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1148,7 +1201,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="11">
         <v>13</v>
@@ -1167,6 +1220,10 @@
       </c>
       <c r="I14" s="12">
         <v>1.08</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.15618492294877137</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1174,7 +1231,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="11">
         <v>14</v>
@@ -1193,6 +1250,10 @@
       </c>
       <c r="I15" s="12">
         <v>0.97</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14577259475218662</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1">
@@ -1200,7 +1261,7 @@
         <v>2013</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
@@ -1221,14 +1282,17 @@
       <c r="I16" s="12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>9.8917117867555221E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="3">
         <v>2007</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11">
         <v>16</v>
@@ -1247,6 +1311,10 @@
       </c>
       <c r="I17" s="12">
         <v>1.19</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1639941690962099</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1">
